--- a/New folder/bvtv.xlsx
+++ b/New folder/bvtv.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\inzynierka\inz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\inzynierka\inz\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="26715" windowHeight="19020" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="26715" windowHeight="19020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="74">
   <si>
     <t>BV/TV</t>
   </si>
@@ -251,7 +251,7 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>Wiek</t>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -327,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +496,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,6 +569,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -667,15 +682,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$59</c:f>
@@ -1052,15 +1058,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$AB$2:$AB$36</c:f>
@@ -1299,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466194912"/>
-        <c:axId val="466199264"/>
+        <c:axId val="-581171264"/>
+        <c:axId val="-581170720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466194912"/>
+        <c:axId val="-581171264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,12 +1329,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466199264"/>
+        <c:crossAx val="-581170720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466199264"/>
+        <c:axId val="-581170720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466194912"/>
+        <c:crossAx val="-581171264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1730,11 +1727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="510080672"/>
-        <c:axId val="510081216"/>
+        <c:axId val="-491055664"/>
+        <c:axId val="-491065456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="510080672"/>
+        <c:axId val="-491055664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,12 +1788,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510081216"/>
+        <c:crossAx val="-491065456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510081216"/>
+        <c:axId val="-491065456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1850,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510080672"/>
+        <c:crossAx val="-491055664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2435,11 +2432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="600058656"/>
-        <c:axId val="600062464"/>
+        <c:axId val="-491062192"/>
+        <c:axId val="-491066000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="600058656"/>
+        <c:axId val="-491062192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,12 +2493,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600062464"/>
+        <c:crossAx val="-491066000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="600062464"/>
+        <c:axId val="-491066000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2555,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600058656"/>
+        <c:crossAx val="-491062192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2907,11 +2904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466190016"/>
-        <c:axId val="466186208"/>
+        <c:axId val="-581168544"/>
+        <c:axId val="-581168000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466190016"/>
+        <c:axId val="-581168544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2947,12 +2944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466186208"/>
+        <c:crossAx val="-581168000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466186208"/>
+        <c:axId val="-581168000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -2983,7 +2980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466190016"/>
+        <c:crossAx val="-581168544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3874,11 +3871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466198720"/>
-        <c:axId val="466186752"/>
+        <c:axId val="-491174752"/>
+        <c:axId val="-491175840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466198720"/>
+        <c:axId val="-491174752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3935,12 +3932,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466186752"/>
+        <c:crossAx val="-491175840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466186752"/>
+        <c:axId val="-491175840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +3994,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466198720"/>
+        <c:crossAx val="-491174752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4579,11 +4576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466197088"/>
-        <c:axId val="466197632"/>
+        <c:axId val="-491162240"/>
+        <c:axId val="-491173120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466197088"/>
+        <c:axId val="-491162240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4696,12 +4693,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466197632"/>
+        <c:crossAx val="-491173120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466197632"/>
+        <c:axId val="-491173120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,7 +4817,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466197088"/>
+        <c:crossAx val="-491162240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6001,11 +5998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466188384"/>
-        <c:axId val="466192192"/>
+        <c:axId val="-491172576"/>
+        <c:axId val="-491162784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466188384"/>
+        <c:axId val="-491172576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6064,12 +6061,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466192192"/>
+        <c:crossAx val="-491162784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466192192"/>
+        <c:axId val="-491162784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6126,7 +6123,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466188384"/>
+        <c:crossAx val="-491172576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6519,11 +6516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466194368"/>
-        <c:axId val="510081760"/>
+        <c:axId val="-491167680"/>
+        <c:axId val="-491169856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466194368"/>
+        <c:axId val="-491167680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,12 +6633,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510081760"/>
+        <c:crossAx val="-491169856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510081760"/>
+        <c:axId val="-491169856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -6755,7 +6752,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466194368"/>
+        <c:crossAx val="-491167680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7396,11 +7393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="510080128"/>
-        <c:axId val="510078496"/>
+        <c:axId val="-491171488"/>
+        <c:axId val="-491170944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="510080128"/>
+        <c:axId val="-491171488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -7514,12 +7511,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510078496"/>
+        <c:crossAx val="-491170944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510078496"/>
+        <c:axId val="-491170944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -7633,7 +7630,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510080128"/>
+        <c:crossAx val="-491171488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8119,11 +8116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="510074144"/>
-        <c:axId val="510079040"/>
+        <c:axId val="-491160608"/>
+        <c:axId val="-491174208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="510074144"/>
+        <c:axId val="-491160608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8236,12 +8233,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510079040"/>
+        <c:crossAx val="-491174208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510079040"/>
+        <c:axId val="-491174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8354,7 +8351,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510074144"/>
+        <c:crossAx val="-491160608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8914,11 +8911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="510084480"/>
-        <c:axId val="510077408"/>
+        <c:axId val="-491172032"/>
+        <c:axId val="-491163328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="510084480"/>
+        <c:axId val="-491172032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8975,12 +8972,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510077408"/>
+        <c:crossAx val="-491163328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510077408"/>
+        <c:axId val="-491163328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9037,7 +9034,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510084480"/>
+        <c:crossAx val="-491172032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14094,16 +14091,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>641910</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14795,8 +14792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS231"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA2:AA36"/>
+    <sheetView topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23557,8 +23554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D30"/>
+    <sheetView topLeftCell="C24" workbookViewId="0">
+      <selection sqref="A1:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24737,10 +24734,10 @@
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="16" t="s">
         <v>54</v>
       </c>
@@ -24975,16 +24972,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -25005,13 +25002,14 @@
       <c r="G1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="28" t="s">
         <v>72</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -25032,21 +25030,15 @@
       <c r="Q1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="S1" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <f>1-C2</f>
         <v>0.66700000000000004</v>
       </c>
@@ -25057,7 +25049,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D10" si="0">G2*10^(-3)</f>
+        <f>G2*10^(-3)</f>
         <v>9.7704999999999997E-3</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -25069,17 +25061,15 @@
       <c r="G2" s="12">
         <v>9.7705000000000002</v>
       </c>
-      <c r="H2" s="22">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I10" si="1">2.3113*C2</f>
+      <c r="H2" s="2">
+        <f>2.3113*C2</f>
         <v>0.76966290000000004</v>
       </c>
-      <c r="J2" s="22">
+      <c r="I2" s="26">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="26"/>
+      <c r="K2" s="2">
         <v>0.73499999999999999</v>
       </c>
       <c r="L2" s="11">
@@ -25100,22 +25090,16 @@
       <c r="Q2" s="12">
         <v>7.2103999999999999</v>
       </c>
-      <c r="R2" s="22">
-        <v>3</v>
+      <c r="R2" s="2">
+        <v>0.61249450000000005</v>
       </c>
       <c r="S2" s="2">
-        <v>0.61249450000000005</v>
-      </c>
-      <c r="T2">
-        <v>0.58300000000000007</v>
-      </c>
-      <c r="U2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:A10" si="2">1-C3</f>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A10" si="0">1-C3</f>
         <v>0.66500000000000004</v>
       </c>
       <c r="B3" s="11">
@@ -25125,7 +25109,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
+        <f>G3*10^(-3)</f>
         <v>4.8891000000000004E-3</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -25137,17 +25121,15 @@
       <c r="G3" s="12">
         <v>4.8891</v>
       </c>
-      <c r="H3" s="22">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="1"/>
+      <c r="H3" s="2">
+        <f>2.3113*C3</f>
         <v>0.77428550000000007</v>
       </c>
-      <c r="J3" s="22">
+      <c r="I3" s="26">
         <v>6</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="26"/>
+      <c r="K3" s="2">
         <v>0.73299999999999998</v>
       </c>
       <c r="L3" s="11">
@@ -25168,22 +25150,16 @@
       <c r="Q3" s="12">
         <v>1.0219</v>
       </c>
-      <c r="R3" s="22">
-        <v>2</v>
+      <c r="R3" s="2">
+        <v>0.61711710000000009</v>
       </c>
       <c r="S3" s="2">
-        <v>0.61711710000000009</v>
-      </c>
-      <c r="T3">
-        <v>0.58960000000000012</v>
-      </c>
-      <c r="U3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="2"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
         <v>0.66399999999999992</v>
       </c>
       <c r="B4" s="11">
@@ -25193,7 +25169,7 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f>G4*10^(-3)</f>
         <v>3.2041000000000001E-3</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -25205,17 +25181,15 @@
       <c r="G4" s="12">
         <v>3.2040999999999999</v>
       </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
+      <c r="H4" s="2">
+        <f>2.3113*C4</f>
         <v>0.77659680000000009</v>
       </c>
-      <c r="J4" s="22">
+      <c r="I4" s="26">
         <v>6</v>
       </c>
-      <c r="K4">
+      <c r="J4" s="26"/>
+      <c r="K4" s="2">
         <v>0.73399999999999999</v>
       </c>
       <c r="L4" s="11">
@@ -25236,22 +25210,16 @@
       <c r="Q4" s="12">
         <v>8.2385000000000002</v>
       </c>
-      <c r="R4" s="22">
-        <v>1</v>
+      <c r="R4" s="2">
+        <v>0.61480580000000007</v>
       </c>
       <c r="S4" s="2">
-        <v>0.61480580000000007</v>
-      </c>
-      <c r="T4">
-        <v>0.58520000000000005</v>
-      </c>
-      <c r="U4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="2"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>0.69700000000000006</v>
       </c>
       <c r="B5" s="11">
@@ -25261,7 +25229,7 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f>G5*10^(-3)</f>
         <v>6.7698999999999997E-3</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -25273,17 +25241,15 @@
       <c r="G5" s="12">
         <v>6.7698999999999998</v>
       </c>
-      <c r="H5" s="22">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
+      <c r="H5" s="2">
+        <f>2.3113*C5</f>
         <v>0.7003239</v>
       </c>
-      <c r="J5" s="22">
+      <c r="I5" s="26">
         <v>6</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="26"/>
+      <c r="K5" s="2">
         <v>0.626</v>
       </c>
       <c r="L5" s="11">
@@ -25304,22 +25270,16 @@
       <c r="Q5" s="12">
         <v>4.8127000000000004</v>
       </c>
-      <c r="R5" s="22">
-        <v>1</v>
+      <c r="R5" s="2">
+        <v>0.86442620000000003</v>
       </c>
       <c r="S5" s="2">
-        <v>0.86442620000000003</v>
-      </c>
-      <c r="T5">
-        <v>0.82280000000000009</v>
-      </c>
-      <c r="U5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="2"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
         <v>0.69300000000000006</v>
       </c>
       <c r="B6" s="11">
@@ -25329,7 +25289,7 @@
         <v>0.307</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f>G6*10^(-3)</f>
         <v>7.6550000000000003E-3</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -25341,17 +25301,15 @@
       <c r="G6" s="12">
         <v>7.6550000000000002</v>
       </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
+      <c r="H6" s="2">
+        <f>2.3113*C6</f>
         <v>0.70956910000000006</v>
       </c>
-      <c r="J6" s="22">
+      <c r="I6" s="26">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="26"/>
+      <c r="K6" s="2">
         <v>0.625</v>
       </c>
       <c r="L6" s="11">
@@ -25372,22 +25330,16 @@
       <c r="Q6" s="12">
         <v>2.1063000000000001</v>
       </c>
-      <c r="R6" s="22">
-        <v>3</v>
+      <c r="R6" s="2">
+        <v>0.86673750000000005</v>
       </c>
       <c r="S6" s="2">
-        <v>0.86673750000000005</v>
-      </c>
-      <c r="T6">
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="U6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="2"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
         <v>0.69399999999999995</v>
       </c>
       <c r="B7" s="11">
@@ -25397,7 +25349,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f>G7*10^(-3)</f>
         <v>1.45474E-2</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -25409,17 +25361,15 @@
       <c r="G7" s="12">
         <v>14.5474</v>
       </c>
-      <c r="H7" s="22">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
+      <c r="H7" s="2">
+        <f>2.3113*C7</f>
         <v>0.70725780000000005</v>
       </c>
-      <c r="J7" s="22">
+      <c r="I7" s="26">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="26"/>
+      <c r="K7" s="2">
         <v>0.627</v>
       </c>
       <c r="L7" s="11">
@@ -25440,22 +25390,16 @@
       <c r="Q7" s="12">
         <v>6.0113000000000003</v>
       </c>
-      <c r="R7" s="22">
-        <v>2</v>
+      <c r="R7" s="2">
+        <v>0.86211490000000002</v>
       </c>
       <c r="S7" s="2">
-        <v>0.86211490000000002</v>
-      </c>
-      <c r="T7">
-        <v>0.81840000000000002</v>
-      </c>
-      <c r="U7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="2"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
         <v>0.84299999999999997</v>
       </c>
       <c r="B8" s="11">
@@ -25465,7 +25409,7 @@
         <v>0.157</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f>G8*10^(-3)</f>
         <v>1.16977E-2</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -25477,17 +25421,15 @@
       <c r="G8" s="12">
         <v>11.697699999999999</v>
       </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
+      <c r="H8" s="2">
+        <f>2.3113*C8</f>
         <v>0.36287410000000003</v>
       </c>
-      <c r="J8" s="22">
+      <c r="I8" s="26">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="26"/>
+      <c r="K8" s="2">
         <v>0.84499999999999997</v>
       </c>
       <c r="L8" s="11">
@@ -25508,22 +25450,16 @@
       <c r="Q8" s="12">
         <v>4.6601999999999997</v>
       </c>
-      <c r="R8" s="22">
-        <v>3</v>
+      <c r="R8" s="2">
+        <v>0.3582515</v>
       </c>
       <c r="S8" s="2">
-        <v>0.3582515</v>
-      </c>
-      <c r="T8">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="U8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="2"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="B9" s="11">
@@ -25533,7 +25469,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f>G9*10^(-3)</f>
         <v>1.4992699999999999E-2</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -25545,17 +25481,15 @@
       <c r="G9" s="12">
         <v>14.992699999999999</v>
       </c>
-      <c r="H9" s="22">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
+      <c r="H9" s="2">
+        <f>2.3113*C9</f>
         <v>0.38136450000000005</v>
       </c>
-      <c r="J9" s="22">
+      <c r="I9" s="26">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="26"/>
+      <c r="K9" s="2">
         <v>0.84399999999999997</v>
       </c>
       <c r="L9" s="11">
@@ -25576,22 +25510,16 @@
       <c r="Q9" s="12">
         <v>7.8902999999999999</v>
       </c>
-      <c r="R9" s="22">
-        <v>2</v>
+      <c r="R9" s="2">
+        <v>0.36056280000000002</v>
       </c>
       <c r="S9" s="2">
-        <v>0.36056280000000002</v>
-      </c>
-      <c r="T9">
-        <v>0.34320000000000001</v>
-      </c>
-      <c r="U9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="2"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
         <v>0.83799999999999997</v>
       </c>
       <c r="B10" s="11">
@@ -25601,7 +25529,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f>G10*10^(-3)</f>
         <v>1.5706990000000001E-2</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -25613,17 +25541,15 @@
       <c r="G10" s="12">
         <v>15.706989999999999</v>
       </c>
-      <c r="H10" s="22">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
+      <c r="H10" s="2">
+        <f>2.3113*C10</f>
         <v>0.37443060000000006</v>
       </c>
-      <c r="J10" s="22">
+      <c r="I10" s="26">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="26"/>
+      <c r="K10" s="2">
         <v>0.84799999999999998</v>
       </c>
       <c r="L10" s="11">
@@ -25644,21 +25570,57 @@
       <c r="Q10" s="12">
         <v>1.7384599999999999</v>
       </c>
-      <c r="R10" s="22">
-        <v>1</v>
+      <c r="R10" s="2">
+        <v>0.35131760000000001</v>
       </c>
       <c r="S10" s="2">
-        <v>0.35131760000000001</v>
-      </c>
-      <c r="T10">
-        <v>0.33440000000000003</v>
-      </c>
-      <c r="U10">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -25679,13 +25641,14 @@
       <c r="G13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I13" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="28" t="s">
         <v>72</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -25706,15 +25669,15 @@
       <c r="Q13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="R13" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="S13" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>0.69799999999999995</v>
       </c>
       <c r="B14" s="11">
@@ -25735,16 +25698,14 @@
       <c r="G14" s="12">
         <v>8.6662999999999997</v>
       </c>
-      <c r="H14" s="22">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="2">
         <v>0.69801259999999998</v>
       </c>
-      <c r="J14" s="22">
+      <c r="I14" s="26">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="26"/>
+      <c r="K14" s="2">
         <f>1-M14</f>
         <v>0.79500000000000004</v>
       </c>
@@ -25755,7 +25716,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" ref="N14:N22" si="3">Q14*10^(-3)</f>
+        <f t="shared" ref="N14:N22" si="1">Q14*10^(-3)</f>
         <v>2.02769E-2</v>
       </c>
       <c r="O14" s="11" t="s">
@@ -25768,19 +25729,16 @@
         <f>20.2769</f>
         <v>20.276900000000001</v>
       </c>
-      <c r="R14" s="22">
-        <v>2</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="R14" s="2">
         <f>2.3113*M14</f>
         <v>0.47381649999999997</v>
       </c>
-      <c r="T14">
+      <c r="S14" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>0.69900000000000007</v>
       </c>
       <c r="B15" s="11">
@@ -25801,17 +25759,15 @@
       <c r="G15" s="12">
         <v>8.4776000000000007</v>
       </c>
-      <c r="H15" s="22">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="2">
         <v>0.69570129999999997</v>
       </c>
-      <c r="J15" s="22">
+      <c r="I15" s="26">
         <v>5</v>
       </c>
-      <c r="K15">
-        <f t="shared" ref="K15:K16" si="4">1-M15</f>
+      <c r="J15" s="26"/>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15:K16" si="2">1-M15</f>
         <v>0.79600000000000004</v>
       </c>
       <c r="L15" s="11">
@@ -25821,7 +25777,7 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.0483100000000001E-2</v>
       </c>
       <c r="O15" s="11" t="s">
@@ -25833,19 +25789,16 @@
       <c r="Q15" s="12">
         <v>20.4831</v>
       </c>
-      <c r="R15" s="22">
-        <v>1</v>
+      <c r="R15" s="2">
+        <f t="shared" ref="R15:R22" si="3">2.3113*M15</f>
+        <v>0.47150520000000001</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:S22" si="5">2.3113*M15</f>
-        <v>0.47150520000000001</v>
-      </c>
-      <c r="T15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>0.64500000000000002</v>
       </c>
       <c r="B16" s="11">
@@ -25866,17 +25819,15 @@
       <c r="G16" s="12">
         <v>7.1643999999999997</v>
       </c>
-      <c r="H16" s="22">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="2">
         <v>0.82051150000000006</v>
       </c>
-      <c r="J16" s="22">
+      <c r="I16" s="26">
         <v>5</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="2">
+        <f t="shared" si="2"/>
         <v>0.79699999999999993</v>
       </c>
       <c r="L16" s="11">
@@ -25886,7 +25837,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.9372500000000001E-2</v>
       </c>
       <c r="O16" s="11" t="s">
@@ -25898,19 +25849,16 @@
       <c r="Q16" s="12">
         <v>19.372499999999999</v>
       </c>
-      <c r="R16" s="22">
-        <v>3</v>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46919390000000005</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="5"/>
-        <v>0.46919390000000005</v>
-      </c>
-      <c r="T16">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>0.65</v>
       </c>
       <c r="B17" s="11">
@@ -25931,16 +25879,14 @@
       <c r="G17" s="12">
         <v>3.1227999999999998</v>
       </c>
-      <c r="H17" s="22">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="H17" s="2">
         <v>0.80895499999999998</v>
       </c>
-      <c r="J17" s="22">
+      <c r="I17" s="26">
         <v>5</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="26"/>
+      <c r="K17" s="2">
         <f>1-M17</f>
         <v>0.67700000000000005</v>
       </c>
@@ -25951,7 +25897,7 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.29271E-2</v>
       </c>
       <c r="O17" s="11" t="s">
@@ -25963,19 +25909,16 @@
       <c r="Q17" s="12">
         <v>12.927099999999999</v>
       </c>
-      <c r="R17" s="22">
-        <v>2</v>
+      <c r="R17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7465499000000001</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="5"/>
-        <v>0.7465499000000001</v>
-      </c>
-      <c r="T17">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>0.64600000000000002</v>
       </c>
       <c r="B18" s="11">
@@ -25996,17 +25939,15 @@
       <c r="G18" s="12">
         <v>2.6619000000000002</v>
       </c>
-      <c r="H18" s="22">
-        <v>3</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="2">
         <v>0.81820020000000004</v>
       </c>
-      <c r="J18" s="22">
+      <c r="I18" s="26">
         <v>5</v>
       </c>
-      <c r="K18">
-        <f t="shared" ref="K18:K22" si="6">1-M18</f>
+      <c r="J18" s="26"/>
+      <c r="K18" s="2">
+        <f t="shared" ref="K18:K22" si="4">1-M18</f>
         <v>0.67300000000000004</v>
       </c>
       <c r="L18" s="11">
@@ -26016,7 +25957,7 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.1291000000000002E-3</v>
       </c>
       <c r="O18" s="11" t="s">
@@ -26028,19 +25969,16 @@
       <c r="Q18" s="12">
         <v>6.1291000000000002</v>
       </c>
-      <c r="R18" s="22">
-        <v>1</v>
+      <c r="R18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75579510000000005</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="5"/>
-        <v>0.75579510000000005</v>
-      </c>
-      <c r="T18">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>0.83799999999999997</v>
       </c>
       <c r="B19" s="11">
@@ -26061,17 +25999,15 @@
       <c r="G19" s="12">
         <v>3.3132000000000001</v>
       </c>
-      <c r="H19" s="22">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19" s="2">
         <v>0.37443060000000006</v>
       </c>
-      <c r="J19" s="22">
+      <c r="I19" s="26">
         <v>5</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="6"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="2">
+        <f t="shared" si="4"/>
         <v>0.67199999999999993</v>
       </c>
       <c r="L19" s="11">
@@ -26081,7 +26017,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.6501E-3</v>
       </c>
       <c r="O19" s="11" t="s">
@@ -26093,19 +26029,16 @@
       <c r="Q19" s="12">
         <v>9.6501000000000001</v>
       </c>
-      <c r="R19" s="22">
-        <v>3</v>
+      <c r="R19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75810640000000007</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="5"/>
-        <v>0.75810640000000007</v>
-      </c>
-      <c r="T19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>0.83399999999999996</v>
       </c>
       <c r="B20" s="11">
@@ -26126,17 +26059,15 @@
       <c r="G20" s="12">
         <v>2.9108000000000001</v>
       </c>
-      <c r="H20" s="22">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="2">
         <v>0.38367580000000007</v>
       </c>
-      <c r="J20" s="22">
+      <c r="I20" s="26">
         <v>5</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="6"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="2">
+        <f t="shared" si="4"/>
         <v>0.88300000000000001</v>
       </c>
       <c r="L20" s="11">
@@ -26146,7 +26077,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.8190000000000004E-3</v>
       </c>
       <c r="O20" s="11" t="s">
@@ -26158,19 +26089,16 @@
       <c r="Q20" s="12">
         <v>8.8190000000000008</v>
       </c>
-      <c r="R20" s="22">
-        <v>3</v>
+      <c r="R20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27042210000000005</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="5"/>
-        <v>0.27042210000000005</v>
-      </c>
-      <c r="T20">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>0.83699999999999997</v>
       </c>
       <c r="B21" s="11">
@@ -26191,17 +26119,15 @@
       <c r="G21" s="12">
         <v>4.9484000000000004</v>
       </c>
-      <c r="H21" s="22">
-        <v>3</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="2">
         <v>0.37674190000000002</v>
       </c>
-      <c r="J21" s="22">
+      <c r="I21" s="26">
         <v>5</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="6"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="2">
+        <f t="shared" si="4"/>
         <v>0.877</v>
       </c>
       <c r="L21" s="11">
@@ -26211,7 +26137,7 @@
         <v>0.123</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.3295E-3</v>
       </c>
       <c r="O21" s="11" t="s">
@@ -26223,20 +26149,27 @@
       <c r="Q21" s="12">
         <v>2.3294999999999999</v>
       </c>
-      <c r="R21" s="22">
-        <v>1</v>
+      <c r="R21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.28428990000000004</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="5"/>
-        <v>0.28428990000000004</v>
-      </c>
-      <c r="T21">
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <f t="shared" si="6"/>
+    <row r="22" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <f t="shared" si="4"/>
         <v>0.88800000000000001</v>
       </c>
       <c r="L22" s="11">
@@ -26246,7 +26179,7 @@
         <v>0.112</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.9801999999999998E-3</v>
       </c>
       <c r="O22" s="11" t="s">
@@ -26258,14 +26191,11 @@
       <c r="Q22" s="12">
         <v>6.9802</v>
       </c>
-      <c r="R22" s="22">
-        <v>2</v>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25886560000000003</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="5"/>
-        <v>0.25886560000000003</v>
-      </c>
-      <c r="T22">
         <v>1.5</v>
       </c>
     </row>
